--- a/Competitors and items.xlsx
+++ b/Competitors and items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\AGV projects\Costing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63B56C-9CC6-4B67-9C40-F7777DF18DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C8BFA-DA07-476A-ABCF-8B087FA07A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-640" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17595" yWindow="0" windowWidth="11310" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cat_product_admin(2)" sheetId="1" r:id="rId1"/>
@@ -5723,13 +5723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5781,30 +5781,30 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>105</v>
+        <v>1925</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>737</v>
+        <v>871</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="F2" s="7">
-        <v>179550</v>
+        <v>3861</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>1344</v>
+        <v>1358</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1345</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>1345</v>
@@ -5853,28 +5853,28 @@
     </row>
     <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1110</v>
+        <v>4675</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>739</v>
+        <v>1197</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>590</v>
       </c>
       <c r="F4" s="7">
-        <v>821512</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>1539</v>
+        <v>266800</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1345</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1540</v>
@@ -5883,7 +5883,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1174</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1179</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1180</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1182</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1186</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1196</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1239</v>
       </c>
@@ -6075,30 +6075,30 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>128</v>
+        <v>1609</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>747</v>
+        <v>821</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F12" s="7">
-        <v>39778</v>
+        <v>13276</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>1345</v>
@@ -6110,30 +6110,30 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>130</v>
+        <v>4868</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>748</v>
+        <v>1272</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>35</v>
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="F13" s="7">
-        <v>77834</v>
+        <v>9960</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>1353</v>
+        <v>1497</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1354</v>
+        <v>1499</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>1345</v>
@@ -6147,28 +6147,28 @@
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1321</v>
+        <v>1110</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7">
-        <v>224000</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>1542</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1412</v>
+        <v>821512</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>1539</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>1543</v>
@@ -6177,7 +6177,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1325</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1326</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1331</v>
       </c>
@@ -6276,30 +6276,30 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>1332</v>
+        <v>2250</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>753</v>
+        <v>881</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="F18" s="7">
-        <v>55080</v>
+        <v>949687</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1345</v>
+        <v>1586</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>1587</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>1548</v>
@@ -6308,7 +6308,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1333</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1334</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1335</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1336</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1337</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1338</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1339</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>134</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1340</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1341</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1342</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1343</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1344</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1345</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1346</v>
       </c>
@@ -6791,27 +6791,27 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>1347</v>
+        <v>1581</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>768</v>
+        <v>818</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="F34" s="7">
-        <v>32997</v>
+        <v>3013777</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>1563</v>
+        <v>1366</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>1345</v>
@@ -6823,7 +6823,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1348</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1349</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1350</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1351</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1352</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1353</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1354</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1355</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1356</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1357</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1358</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1359</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>136</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>137</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>138</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1387</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1388</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1389</v>
       </c>
@@ -7351,7 +7351,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>139</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1390</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1391</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1392</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>140</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>141</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>142</v>
       </c>
@@ -7519,7 +7519,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>143</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>144</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>145</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>146</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="13"/>
     </row>
-    <row r="64" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>147</v>
       </c>
@@ -7639,7 +7639,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>148</v>
       </c>
@@ -7663,7 +7663,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="13"/>
     </row>
-    <row r="66" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>149</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>150</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>151</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1518</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="13"/>
     </row>
-    <row r="70" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1519</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="13"/>
     </row>
-    <row r="71" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>152</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="13"/>
     </row>
-    <row r="72" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>153</v>
       </c>
@@ -7831,7 +7831,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="13"/>
     </row>
-    <row r="73" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1556</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="13"/>
     </row>
-    <row r="74" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1557</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="13"/>
     </row>
-    <row r="75" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1561</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="13"/>
     </row>
-    <row r="76" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1562</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="13"/>
     </row>
-    <row r="77" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1563</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="13"/>
     </row>
-    <row r="78" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1574</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="13"/>
     </row>
-    <row r="79" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1575</v>
       </c>
@@ -7999,7 +7999,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="13"/>
     </row>
-    <row r="80" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1576</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="13"/>
     </row>
-    <row r="81" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1577</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="13"/>
     </row>
-    <row r="82" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1578</v>
       </c>
@@ -8071,7 +8071,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1579</v>
       </c>
@@ -8097,29 +8097,27 @@
     </row>
     <row r="84" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>1581</v>
+        <v>4943</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>818</v>
+        <v>1307</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>707</v>
       </c>
       <c r="F84" s="7">
-        <v>3013777</v>
+        <v>119000</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>1345</v>
-      </c>
+        <v>1531</v>
+      </c>
+      <c r="H84" s="8"/>
       <c r="I84" s="8" t="s">
         <v>1345</v>
       </c>
@@ -8127,7 +8125,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1607</v>
       </c>
@@ -8159,7 +8157,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1608</v>
       </c>
@@ -8193,28 +8191,28 @@
     </row>
     <row r="87" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>1609</v>
+        <v>105</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>821</v>
+        <v>737</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="F87" s="7">
-        <v>13276</v>
+        <v>179550</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>1369</v>
+        <v>1342</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>1370</v>
+        <v>1344</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>1345</v>
@@ -8223,7 +8221,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1610</v>
       </c>
@@ -8255,7 +8253,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1615</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1616</v>
       </c>
@@ -8319,7 +8317,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1617</v>
       </c>
@@ -8346,7 +8344,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1618</v>
       </c>
@@ -8378,7 +8376,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1620</v>
       </c>
@@ -8402,7 +8400,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="13"/>
     </row>
-    <row r="94" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>1682</v>
       </c>
@@ -8434,7 +8432,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>1683</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>1684</v>
       </c>
@@ -8498,7 +8496,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>1685</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>1700</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1701</v>
       </c>
@@ -8589,7 +8587,7 @@
       <c r="I99" s="8"/>
       <c r="J99" s="13"/>
     </row>
-    <row r="100" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>1702</v>
       </c>
@@ -8613,7 +8611,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="13"/>
     </row>
-    <row r="101" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1703</v>
       </c>
@@ -8637,7 +8635,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>1704</v>
       </c>
@@ -8661,7 +8659,7 @@
       <c r="I102" s="8"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1705</v>
       </c>
@@ -8685,7 +8683,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1708</v>
       </c>
@@ -8709,7 +8707,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="13"/>
     </row>
-    <row r="105" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>1732</v>
       </c>
@@ -8733,7 +8731,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="13"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>1733</v>
       </c>
@@ -8757,7 +8755,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="13"/>
     </row>
-    <row r="107" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1734</v>
       </c>
@@ -8781,7 +8779,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="13"/>
     </row>
-    <row r="108" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1735</v>
       </c>
@@ -8805,7 +8803,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="13"/>
     </row>
-    <row r="109" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1736</v>
       </c>
@@ -8837,30 +8835,30 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>1738</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>174</v>
+        <v>128</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F110" s="7">
-        <v>204640</v>
+        <v>39778</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>1345</v>
+        <v>1349</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>1350</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>1345</v>
@@ -8869,7 +8867,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1740</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1744</v>
       </c>
@@ -8925,7 +8923,7 @@
       <c r="I112" s="8"/>
       <c r="J112" s="13"/>
     </row>
-    <row r="113" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1745</v>
       </c>
@@ -8949,7 +8947,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="13"/>
     </row>
-    <row r="114" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1769</v>
       </c>
@@ -8973,7 +8971,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="13"/>
     </row>
-    <row r="115" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1771</v>
       </c>
@@ -8997,7 +8995,7 @@
       <c r="I115" s="8"/>
       <c r="J115" s="13"/>
     </row>
-    <row r="116" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1772</v>
       </c>
@@ -9021,7 +9019,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="13"/>
     </row>
-    <row r="117" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1773</v>
       </c>
@@ -9045,7 +9043,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="13"/>
     </row>
-    <row r="118" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1775</v>
       </c>
@@ -9069,7 +9067,7 @@
       <c r="I118" s="8"/>
       <c r="J118" s="13"/>
     </row>
-    <row r="119" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1792</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1793</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>181</v>
       </c>
@@ -9165,7 +9163,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1819</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>182</v>
       </c>
@@ -9229,7 +9227,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1820</v>
       </c>
@@ -9251,7 +9249,7 @@
       <c r="I124" s="8"/>
       <c r="J124" s="13"/>
     </row>
-    <row r="125" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>1822</v>
       </c>
@@ -9283,7 +9281,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1824</v>
       </c>
@@ -9315,7 +9313,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1836</v>
       </c>
@@ -9347,7 +9345,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1851</v>
       </c>
@@ -9379,7 +9377,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1854</v>
       </c>
@@ -9403,7 +9401,7 @@
       <c r="I129" s="8"/>
       <c r="J129" s="13"/>
     </row>
-    <row r="130" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1878</v>
       </c>
@@ -9427,7 +9425,7 @@
       <c r="I130" s="8"/>
       <c r="J130" s="13"/>
     </row>
-    <row r="131" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1884</v>
       </c>
@@ -9451,7 +9449,7 @@
       <c r="I131" s="8"/>
       <c r="J131" s="13"/>
     </row>
-    <row r="132" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1893</v>
       </c>
@@ -9475,7 +9473,7 @@
       <c r="I132" s="8"/>
       <c r="J132" s="13"/>
     </row>
-    <row r="133" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1894</v>
       </c>
@@ -9499,7 +9497,7 @@
       <c r="I133" s="8"/>
       <c r="J133" s="13"/>
     </row>
-    <row r="134" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>1896</v>
       </c>
@@ -9523,7 +9521,7 @@
       <c r="I134" s="8"/>
       <c r="J134" s="13"/>
     </row>
-    <row r="135" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1897</v>
       </c>
@@ -9547,7 +9545,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="13"/>
     </row>
-    <row r="136" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>19</v>
       </c>
@@ -9571,30 +9569,30 @@
       <c r="I136" s="8"/>
       <c r="J136" s="13"/>
     </row>
-    <row r="137" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>1925</v>
+        <v>130</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>871</v>
+        <v>748</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>216</v>
+        <v>33</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="F137" s="7">
-        <v>3861</v>
+        <v>77834</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>1345</v>
+        <v>1353</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>1354</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>1345</v>
@@ -9603,7 +9601,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1930</v>
       </c>
@@ -9627,7 +9625,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="13"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1946</v>
       </c>
@@ -9662,7 +9660,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>2018</v>
       </c>
@@ -9686,7 +9684,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="13"/>
     </row>
-    <row r="141" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2028</v>
       </c>
@@ -9718,7 +9716,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2043</v>
       </c>
@@ -9753,7 +9751,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>2047</v>
       </c>
@@ -9777,7 +9775,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="13"/>
     </row>
-    <row r="144" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>2048</v>
       </c>
@@ -9801,7 +9799,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="13"/>
     </row>
-    <row r="145" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2051</v>
       </c>
@@ -9825,7 +9823,7 @@
       <c r="I145" s="8"/>
       <c r="J145" s="13"/>
     </row>
-    <row r="146" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>2056</v>
       </c>
@@ -9851,28 +9849,28 @@
     </row>
     <row r="147" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="F147" s="7">
-        <v>949687</v>
+        <v>13597</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>1586</v>
+        <v>1388</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>1587</v>
+        <v>1390</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>1540</v>
@@ -9881,7 +9879,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2258</v>
       </c>
@@ -9913,7 +9911,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2380</v>
       </c>
@@ -9945,7 +9943,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>2381</v>
       </c>
@@ -9969,7 +9967,7 @@
       <c r="I150" s="8"/>
       <c r="J150" s="13"/>
     </row>
-    <row r="151" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>2411</v>
       </c>
@@ -9993,7 +9991,7 @@
       <c r="I151" s="8"/>
       <c r="J151" s="13"/>
     </row>
-    <row r="152" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>2454</v>
       </c>
@@ -10017,7 +10015,7 @@
       <c r="I152" s="8"/>
       <c r="J152" s="13"/>
     </row>
-    <row r="153" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>2455</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>2539</v>
       </c>
@@ -10073,7 +10071,7 @@
       <c r="I154" s="8"/>
       <c r="J154" s="13"/>
     </row>
-    <row r="155" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>2613</v>
       </c>
@@ -10097,7 +10095,7 @@
       <c r="I155" s="8"/>
       <c r="J155" s="13"/>
     </row>
-    <row r="156" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>2614</v>
       </c>
@@ -10121,7 +10119,7 @@
       <c r="I156" s="8"/>
       <c r="J156" s="13"/>
     </row>
-    <row r="157" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>2615</v>
       </c>
@@ -10145,7 +10143,7 @@
       <c r="I157" s="8"/>
       <c r="J157" s="13"/>
     </row>
-    <row r="158" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>2616</v>
       </c>
@@ -10177,7 +10175,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>2618</v>
       </c>
@@ -10201,37 +10199,37 @@
       <c r="I159" s="8"/>
       <c r="J159" s="13"/>
     </row>
-    <row r="160" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>2650</v>
+        <v>1332</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>894</v>
+        <v>753</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="F160" s="7">
-        <v>13597</v>
+        <v>55080</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H160" s="14" t="s">
-        <v>1390</v>
+        <v>1547</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>1345</v>
       </c>
       <c r="I160" s="14" t="s">
         <v>1389</v>
       </c>
       <c r="J160" s="15"/>
     </row>
-    <row r="161" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2653</v>
       </c>
@@ -10263,7 +10261,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>2655</v>
       </c>
@@ -10295,7 +10293,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>2657</v>
       </c>
@@ -10327,7 +10325,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2658</v>
       </c>
@@ -10359,7 +10357,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2659</v>
       </c>
@@ -10394,7 +10392,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>2662</v>
       </c>
@@ -10426,7 +10424,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>2663</v>
       </c>
@@ -10458,7 +10456,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2668</v>
       </c>
@@ -10493,7 +10491,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2669</v>
       </c>
@@ -10525,7 +10523,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>2670</v>
       </c>
@@ -10557,7 +10555,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>2671</v>
       </c>
@@ -10589,7 +10587,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>2679</v>
       </c>
@@ -10613,7 +10611,7 @@
       <c r="I172" s="8"/>
       <c r="J172" s="13"/>
     </row>
-    <row r="173" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>2680</v>
       </c>
@@ -10645,7 +10643,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>2681</v>
       </c>
@@ -10677,7 +10675,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>2683</v>
       </c>
@@ -10709,7 +10707,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>2687</v>
       </c>
@@ -10741,7 +10739,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>2692</v>
       </c>
@@ -10773,7 +10771,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>2695</v>
       </c>
@@ -10805,7 +10803,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2696</v>
       </c>
@@ -10837,7 +10835,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>2697</v>
       </c>
@@ -10869,7 +10867,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>2699</v>
       </c>
@@ -10901,7 +10899,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>2707</v>
       </c>
@@ -10936,7 +10934,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>2708</v>
       </c>
@@ -10971,7 +10969,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>2709</v>
       </c>
@@ -11006,7 +11004,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>2710</v>
       </c>
@@ -11041,7 +11039,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>2711</v>
       </c>
@@ -11073,7 +11071,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>2712</v>
       </c>
@@ -11108,7 +11106,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>2722</v>
       </c>
@@ -11140,7 +11138,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>2723</v>
       </c>
@@ -11172,7 +11170,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2724</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2725</v>
       </c>
@@ -11228,7 +11226,7 @@
       <c r="I191" s="8"/>
       <c r="J191" s="13"/>
     </row>
-    <row r="192" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2728</v>
       </c>
@@ -11252,7 +11250,7 @@
       <c r="I192" s="8"/>
       <c r="J192" s="13"/>
     </row>
-    <row r="193" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2730</v>
       </c>
@@ -11284,7 +11282,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2733</v>
       </c>
@@ -11308,7 +11306,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="13"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2737</v>
       </c>
@@ -11332,7 +11330,7 @@
       <c r="I195" s="8"/>
       <c r="J195" s="13"/>
     </row>
-    <row r="196" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2739</v>
       </c>
@@ -11367,7 +11365,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2747</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2748</v>
       </c>
@@ -11431,7 +11429,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2749</v>
       </c>
@@ -11463,7 +11461,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2751</v>
       </c>
@@ -11495,7 +11493,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2752</v>
       </c>
@@ -11527,7 +11525,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2759</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2767</v>
       </c>
@@ -11591,7 +11589,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2768</v>
       </c>
@@ -11623,7 +11621,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2777</v>
       </c>
@@ -11655,7 +11653,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2789</v>
       </c>
@@ -11687,7 +11685,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2791</v>
       </c>
@@ -11719,7 +11717,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2793</v>
       </c>
@@ -11751,7 +11749,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>2794</v>
       </c>
@@ -11783,7 +11781,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2803</v>
       </c>
@@ -11815,7 +11813,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>2804</v>
       </c>
@@ -11847,7 +11845,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2805</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2833</v>
       </c>
@@ -11911,7 +11909,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>2834</v>
       </c>
@@ -11943,7 +11941,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2848</v>
       </c>
@@ -11975,7 +11973,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2849</v>
       </c>
@@ -11999,7 +11997,7 @@
       <c r="I216" s="8"/>
       <c r="J216" s="13"/>
     </row>
-    <row r="217" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>2850</v>
       </c>
@@ -12023,7 +12021,7 @@
       <c r="I217" s="8"/>
       <c r="J217" s="13"/>
     </row>
-    <row r="218" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>2851</v>
       </c>
@@ -12047,7 +12045,7 @@
       <c r="I218" s="8"/>
       <c r="J218" s="13"/>
     </row>
-    <row r="219" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>2852</v>
       </c>
@@ -12071,7 +12069,7 @@
       <c r="I219" s="8"/>
       <c r="J219" s="13"/>
     </row>
-    <row r="220" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>2853</v>
       </c>
@@ -12095,7 +12093,7 @@
       <c r="I220" s="8"/>
       <c r="J220" s="13"/>
     </row>
-    <row r="221" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>2854</v>
       </c>
@@ -12119,7 +12117,7 @@
       <c r="I221" s="8"/>
       <c r="J221" s="13"/>
     </row>
-    <row r="222" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>2855</v>
       </c>
@@ -12143,7 +12141,7 @@
       <c r="I222" s="8"/>
       <c r="J222" s="13"/>
     </row>
-    <row r="223" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>2856</v>
       </c>
@@ -12167,7 +12165,7 @@
       <c r="I223" s="8"/>
       <c r="J223" s="13"/>
     </row>
-    <row r="224" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>2858</v>
       </c>
@@ -12191,7 +12189,7 @@
       <c r="I224" s="8"/>
       <c r="J224" s="13"/>
     </row>
-    <row r="225" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>2859</v>
       </c>
@@ -12215,7 +12213,7 @@
       <c r="I225" s="8"/>
       <c r="J225" s="13"/>
     </row>
-    <row r="226" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>2860</v>
       </c>
@@ -12239,7 +12237,7 @@
       <c r="I226" s="8"/>
       <c r="J226" s="13"/>
     </row>
-    <row r="227" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>2861</v>
       </c>
@@ -12263,7 +12261,7 @@
       <c r="I227" s="8"/>
       <c r="J227" s="13"/>
     </row>
-    <row r="228" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>2862</v>
       </c>
@@ -12287,7 +12285,7 @@
       <c r="I228" s="8"/>
       <c r="J228" s="13"/>
     </row>
-    <row r="229" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2863</v>
       </c>
@@ -12311,7 +12309,7 @@
       <c r="I229" s="8"/>
       <c r="J229" s="13"/>
     </row>
-    <row r="230" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>2864</v>
       </c>
@@ -12335,7 +12333,7 @@
       <c r="I230" s="8"/>
       <c r="J230" s="13"/>
     </row>
-    <row r="231" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>2865</v>
       </c>
@@ -12359,7 +12357,7 @@
       <c r="I231" s="8"/>
       <c r="J231" s="13"/>
     </row>
-    <row r="232" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>2866</v>
       </c>
@@ -12383,7 +12381,7 @@
       <c r="I232" s="8"/>
       <c r="J232" s="13"/>
     </row>
-    <row r="233" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>2867</v>
       </c>
@@ -12407,7 +12405,7 @@
       <c r="I233" s="8"/>
       <c r="J233" s="13"/>
     </row>
-    <row r="234" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>2868</v>
       </c>
@@ -12431,7 +12429,7 @@
       <c r="I234" s="8"/>
       <c r="J234" s="13"/>
     </row>
-    <row r="235" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>2869</v>
       </c>
@@ -12455,7 +12453,7 @@
       <c r="I235" s="8"/>
       <c r="J235" s="13"/>
     </row>
-    <row r="236" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>2870</v>
       </c>
@@ -12479,7 +12477,7 @@
       <c r="I236" s="8"/>
       <c r="J236" s="13"/>
     </row>
-    <row r="237" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2871</v>
       </c>
@@ -12503,7 +12501,7 @@
       <c r="I237" s="8"/>
       <c r="J237" s="13"/>
     </row>
-    <row r="238" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>2872</v>
       </c>
@@ -12527,7 +12525,7 @@
       <c r="I238" s="8"/>
       <c r="J238" s="13"/>
     </row>
-    <row r="239" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>2873</v>
       </c>
@@ -12551,7 +12549,7 @@
       <c r="I239" s="8"/>
       <c r="J239" s="13"/>
     </row>
-    <row r="240" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>2874</v>
       </c>
@@ -12575,7 +12573,7 @@
       <c r="I240" s="8"/>
       <c r="J240" s="13"/>
     </row>
-    <row r="241" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2875</v>
       </c>
@@ -12599,7 +12597,7 @@
       <c r="I241" s="8"/>
       <c r="J241" s="13"/>
     </row>
-    <row r="242" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2876</v>
       </c>
@@ -12623,7 +12621,7 @@
       <c r="I242" s="8"/>
       <c r="J242" s="13"/>
     </row>
-    <row r="243" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>2877</v>
       </c>
@@ -12647,7 +12645,7 @@
       <c r="I243" s="8"/>
       <c r="J243" s="13"/>
     </row>
-    <row r="244" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>2878</v>
       </c>
@@ -12671,7 +12669,7 @@
       <c r="I244" s="8"/>
       <c r="J244" s="13"/>
     </row>
-    <row r="245" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>2879</v>
       </c>
@@ -12695,7 +12693,7 @@
       <c r="I245" s="8"/>
       <c r="J245" s="13"/>
     </row>
-    <row r="246" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>2880</v>
       </c>
@@ -12719,7 +12717,7 @@
       <c r="I246" s="8"/>
       <c r="J246" s="13"/>
     </row>
-    <row r="247" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2881</v>
       </c>
@@ -12743,7 +12741,7 @@
       <c r="I247" s="8"/>
       <c r="J247" s="13"/>
     </row>
-    <row r="248" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>2882</v>
       </c>
@@ -12767,7 +12765,7 @@
       <c r="I248" s="8"/>
       <c r="J248" s="13"/>
     </row>
-    <row r="249" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>2883</v>
       </c>
@@ -12791,7 +12789,7 @@
       <c r="I249" s="8"/>
       <c r="J249" s="13"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2884</v>
       </c>
@@ -12815,7 +12813,7 @@
       <c r="I250" s="8"/>
       <c r="J250" s="13"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>2885</v>
       </c>
@@ -12839,7 +12837,7 @@
       <c r="I251" s="8"/>
       <c r="J251" s="13"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2886</v>
       </c>
@@ -12863,7 +12861,7 @@
       <c r="I252" s="8"/>
       <c r="J252" s="13"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2887</v>
       </c>
@@ -12887,7 +12885,7 @@
       <c r="I253" s="8"/>
       <c r="J253" s="13"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>2888</v>
       </c>
@@ -12911,7 +12909,7 @@
       <c r="I254" s="8"/>
       <c r="J254" s="13"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>2889</v>
       </c>
@@ -12935,7 +12933,7 @@
       <c r="I255" s="8"/>
       <c r="J255" s="13"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2890</v>
       </c>
@@ -12959,7 +12957,7 @@
       <c r="I256" s="8"/>
       <c r="J256" s="13"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>2891</v>
       </c>
@@ -12983,7 +12981,7 @@
       <c r="I257" s="8"/>
       <c r="J257" s="13"/>
     </row>
-    <row r="258" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2892</v>
       </c>
@@ -13007,7 +13005,7 @@
       <c r="I258" s="8"/>
       <c r="J258" s="13"/>
     </row>
-    <row r="259" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>2893</v>
       </c>
@@ -13031,7 +13029,7 @@
       <c r="I259" s="8"/>
       <c r="J259" s="13"/>
     </row>
-    <row r="260" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>2894</v>
       </c>
@@ -13055,7 +13053,7 @@
       <c r="I260" s="8"/>
       <c r="J260" s="13"/>
     </row>
-    <row r="261" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>2895</v>
       </c>
@@ -13079,7 +13077,7 @@
       <c r="I261" s="8"/>
       <c r="J261" s="13"/>
     </row>
-    <row r="262" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2896</v>
       </c>
@@ -13103,7 +13101,7 @@
       <c r="I262" s="8"/>
       <c r="J262" s="13"/>
     </row>
-    <row r="263" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>2897</v>
       </c>
@@ -13127,7 +13125,7 @@
       <c r="I263" s="8"/>
       <c r="J263" s="13"/>
     </row>
-    <row r="264" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2898</v>
       </c>
@@ -13151,7 +13149,7 @@
       <c r="I264" s="8"/>
       <c r="J264" s="13"/>
     </row>
-    <row r="265" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>2901</v>
       </c>
@@ -13175,7 +13173,7 @@
       <c r="I265" s="8"/>
       <c r="J265" s="13"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>2903</v>
       </c>
@@ -13199,7 +13197,7 @@
       <c r="I266" s="8"/>
       <c r="J266" s="13"/>
     </row>
-    <row r="267" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>2905</v>
       </c>
@@ -13223,7 +13221,7 @@
       <c r="I267" s="8"/>
       <c r="J267" s="13"/>
     </row>
-    <row r="268" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>2906</v>
       </c>
@@ -13247,7 +13245,7 @@
       <c r="I268" s="8"/>
       <c r="J268" s="13"/>
     </row>
-    <row r="269" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>2907</v>
       </c>
@@ -13271,7 +13269,7 @@
       <c r="I269" s="8"/>
       <c r="J269" s="13"/>
     </row>
-    <row r="270" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>2919</v>
       </c>
@@ -13297,7 +13295,7 @@
       <c r="I270" s="8"/>
       <c r="J270" s="13"/>
     </row>
-    <row r="271" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>2922</v>
       </c>
@@ -13329,7 +13327,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>2923</v>
       </c>
@@ -13361,7 +13359,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>2924</v>
       </c>
@@ -13393,7 +13391,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>2925</v>
       </c>
@@ -13425,7 +13423,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>2926</v>
       </c>
@@ -13457,7 +13455,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>2927</v>
       </c>
@@ -13489,7 +13487,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>2928</v>
       </c>
@@ -13521,7 +13519,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>2929</v>
       </c>
@@ -13553,7 +13551,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>2930</v>
       </c>
@@ -13585,7 +13583,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>2931</v>
       </c>
@@ -13617,7 +13615,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>2932</v>
       </c>
@@ -13649,7 +13647,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>2933</v>
       </c>
@@ -13681,7 +13679,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>2934</v>
       </c>
@@ -13713,7 +13711,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>2935</v>
       </c>
@@ -13745,7 +13743,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>2936</v>
       </c>
@@ -13777,7 +13775,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>2937</v>
       </c>
@@ -13809,7 +13807,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>2938</v>
       </c>
@@ -13841,7 +13839,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>2968</v>
       </c>
@@ -13873,7 +13871,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>2972</v>
       </c>
@@ -13905,7 +13903,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>2988</v>
       </c>
@@ -13937,7 +13935,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>2990</v>
       </c>
@@ -13969,7 +13967,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>2991</v>
       </c>
@@ -14001,7 +13999,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>2992</v>
       </c>
@@ -14033,7 +14031,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>2993</v>
       </c>
@@ -14065,7 +14063,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>2994</v>
       </c>
@@ -14097,7 +14095,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>2995</v>
       </c>
@@ -14129,7 +14127,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>2996</v>
       </c>
@@ -14161,7 +14159,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>2997</v>
       </c>
@@ -14193,7 +14191,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>2998</v>
       </c>
@@ -14225,7 +14223,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>2999</v>
       </c>
@@ -14257,7 +14255,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>3000</v>
       </c>
@@ -14289,7 +14287,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>3001</v>
       </c>
@@ -14321,7 +14319,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>3002</v>
       </c>
@@ -14353,7 +14351,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>3003</v>
       </c>
@@ -14385,7 +14383,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>3004</v>
       </c>
@@ -14417,7 +14415,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>3005</v>
       </c>
@@ -14449,7 +14447,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>3013</v>
       </c>
@@ -14473,7 +14471,7 @@
       <c r="I307" s="8"/>
       <c r="J307" s="13"/>
     </row>
-    <row r="308" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>3026</v>
       </c>
@@ -14497,7 +14495,7 @@
       <c r="I308" s="8"/>
       <c r="J308" s="13"/>
     </row>
-    <row r="309" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>3032</v>
       </c>
@@ -14529,7 +14527,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>3033</v>
       </c>
@@ -14561,7 +14559,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>3051</v>
       </c>
@@ -14585,7 +14583,7 @@
       <c r="I311" s="8"/>
       <c r="J311" s="13"/>
     </row>
-    <row r="312" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>3052</v>
       </c>
@@ -14609,7 +14607,7 @@
       <c r="I312" s="8"/>
       <c r="J312" s="13"/>
     </row>
-    <row r="313" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>3053</v>
       </c>
@@ -14633,7 +14631,7 @@
       <c r="I313" s="8"/>
       <c r="J313" s="13"/>
     </row>
-    <row r="314" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>3054</v>
       </c>
@@ -14657,7 +14655,7 @@
       <c r="I314" s="8"/>
       <c r="J314" s="13"/>
     </row>
-    <row r="315" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>3055</v>
       </c>
@@ -14681,7 +14679,7 @@
       <c r="I315" s="8"/>
       <c r="J315" s="13"/>
     </row>
-    <row r="316" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>3056</v>
       </c>
@@ -14705,7 +14703,7 @@
       <c r="I316" s="8"/>
       <c r="J316" s="13"/>
     </row>
-    <row r="317" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>3057</v>
       </c>
@@ -14729,7 +14727,7 @@
       <c r="I317" s="8"/>
       <c r="J317" s="13"/>
     </row>
-    <row r="318" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>3058</v>
       </c>
@@ -14753,7 +14751,7 @@
       <c r="I318" s="8"/>
       <c r="J318" s="13"/>
     </row>
-    <row r="319" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>3059</v>
       </c>
@@ -14777,7 +14775,7 @@
       <c r="I319" s="8"/>
       <c r="J319" s="13"/>
     </row>
-    <row r="320" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>3060</v>
       </c>
@@ -14801,7 +14799,7 @@
       <c r="I320" s="8"/>
       <c r="J320" s="13"/>
     </row>
-    <row r="321" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>3061</v>
       </c>
@@ -14825,7 +14823,7 @@
       <c r="I321" s="8"/>
       <c r="J321" s="13"/>
     </row>
-    <row r="322" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>3073</v>
       </c>
@@ -14849,7 +14847,7 @@
       <c r="I322" s="8"/>
       <c r="J322" s="13"/>
     </row>
-    <row r="323" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>3074</v>
       </c>
@@ -14873,7 +14871,7 @@
       <c r="I323" s="8"/>
       <c r="J323" s="13"/>
     </row>
-    <row r="324" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>3075</v>
       </c>
@@ -14897,7 +14895,7 @@
       <c r="I324" s="8"/>
       <c r="J324" s="13"/>
     </row>
-    <row r="325" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>3086</v>
       </c>
@@ -14921,7 +14919,7 @@
       <c r="I325" s="8"/>
       <c r="J325" s="13"/>
     </row>
-    <row r="326" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>3090</v>
       </c>
@@ -14945,7 +14943,7 @@
       <c r="I326" s="8"/>
       <c r="J326" s="13"/>
     </row>
-    <row r="327" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>3091</v>
       </c>
@@ -14969,7 +14967,7 @@
       <c r="I327" s="8"/>
       <c r="J327" s="13"/>
     </row>
-    <row r="328" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>3092</v>
       </c>
@@ -14993,7 +14991,7 @@
       <c r="I328" s="8"/>
       <c r="J328" s="13"/>
     </row>
-    <row r="329" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>3093</v>
       </c>
@@ -15017,7 +15015,7 @@
       <c r="I329" s="8"/>
       <c r="J329" s="13"/>
     </row>
-    <row r="330" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>3100</v>
       </c>
@@ -15041,7 +15039,7 @@
       <c r="I330" s="8"/>
       <c r="J330" s="13"/>
     </row>
-    <row r="331" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>3102</v>
       </c>
@@ -15073,7 +15071,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>3116</v>
       </c>
@@ -15105,7 +15103,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>3117</v>
       </c>
@@ -15129,7 +15127,7 @@
       <c r="I333" s="8"/>
       <c r="J333" s="13"/>
     </row>
-    <row r="334" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>3125</v>
       </c>
@@ -15153,7 +15151,7 @@
       <c r="I334" s="8"/>
       <c r="J334" s="13"/>
     </row>
-    <row r="335" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>3126</v>
       </c>
@@ -15177,7 +15175,7 @@
       <c r="I335" s="8"/>
       <c r="J335" s="13"/>
     </row>
-    <row r="336" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>3127</v>
       </c>
@@ -15201,7 +15199,7 @@
       <c r="I336" s="8"/>
       <c r="J336" s="13"/>
     </row>
-    <row r="337" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>3128</v>
       </c>
@@ -15225,7 +15223,7 @@
       <c r="I337" s="8"/>
       <c r="J337" s="13"/>
     </row>
-    <row r="338" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>3129</v>
       </c>
@@ -15249,7 +15247,7 @@
       <c r="I338" s="8"/>
       <c r="J338" s="13"/>
     </row>
-    <row r="339" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>3130</v>
       </c>
@@ -15273,7 +15271,7 @@
       <c r="I339" s="8"/>
       <c r="J339" s="13"/>
     </row>
-    <row r="340" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>3141</v>
       </c>
@@ -15297,7 +15295,7 @@
       <c r="I340" s="8"/>
       <c r="J340" s="13"/>
     </row>
-    <row r="341" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>3143</v>
       </c>
@@ -15321,7 +15319,7 @@
       <c r="I341" s="8"/>
       <c r="J341" s="13"/>
     </row>
-    <row r="342" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>3188</v>
       </c>
@@ -15345,7 +15343,7 @@
       <c r="I342" s="8"/>
       <c r="J342" s="13"/>
     </row>
-    <row r="343" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>3196</v>
       </c>
@@ -15377,7 +15375,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>3213</v>
       </c>
@@ -15409,7 +15407,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>3217</v>
       </c>
@@ -15433,7 +15431,7 @@
       <c r="I345" s="8"/>
       <c r="J345" s="13"/>
     </row>
-    <row r="346" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>3218</v>
       </c>
@@ -15457,7 +15455,7 @@
       <c r="I346" s="8"/>
       <c r="J346" s="13"/>
     </row>
-    <row r="347" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>3220</v>
       </c>
@@ -15481,7 +15479,7 @@
       <c r="I347" s="8"/>
       <c r="J347" s="13"/>
     </row>
-    <row r="348" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>3336</v>
       </c>
@@ -15511,7 +15509,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>3337</v>
       </c>
@@ -15541,7 +15539,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>3338</v>
       </c>
@@ -15573,7 +15571,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>3339</v>
       </c>
@@ -15603,7 +15601,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>3340</v>
       </c>
@@ -15635,7 +15633,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>3341</v>
       </c>
@@ -15665,7 +15663,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>3342</v>
       </c>
@@ -15697,7 +15695,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>3343</v>
       </c>
@@ -15727,30 +15725,30 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>3344</v>
+        <v>1347</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>1090</v>
+        <v>768</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>472</v>
+        <v>72</v>
       </c>
       <c r="F356" s="7">
-        <v>79990</v>
+        <v>32997</v>
       </c>
       <c r="G356" s="14" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H356" s="14" t="s">
-        <v>1449</v>
+        <v>1563</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>1345</v>
       </c>
       <c r="I356" s="8" t="s">
         <v>1345</v>
@@ -15759,7 +15757,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>3345</v>
       </c>
@@ -15789,7 +15787,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>3346</v>
       </c>
@@ -15824,7 +15822,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>3347</v>
       </c>
@@ -15854,7 +15852,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>3348</v>
       </c>
@@ -15876,7 +15874,7 @@
       <c r="I360" s="8"/>
       <c r="J360" s="13"/>
     </row>
-    <row r="361" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>3352</v>
       </c>
@@ -15898,7 +15896,7 @@
       <c r="I361" s="8"/>
       <c r="J361" s="13"/>
     </row>
-    <row r="362" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>3353</v>
       </c>
@@ -15920,7 +15918,7 @@
       <c r="I362" s="8"/>
       <c r="J362" s="13"/>
     </row>
-    <row r="363" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>3354</v>
       </c>
@@ -15942,7 +15940,7 @@
       <c r="I363" s="8"/>
       <c r="J363" s="13"/>
     </row>
-    <row r="364" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>3355</v>
       </c>
@@ -15966,7 +15964,7 @@
       <c r="I364" s="8"/>
       <c r="J364" s="13"/>
     </row>
-    <row r="365" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>3356</v>
       </c>
@@ -15988,7 +15986,7 @@
       <c r="I365" s="8"/>
       <c r="J365" s="13"/>
     </row>
-    <row r="366" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>3357</v>
       </c>
@@ -16010,7 +16008,7 @@
       <c r="I366" s="8"/>
       <c r="J366" s="13"/>
     </row>
-    <row r="367" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>3358</v>
       </c>
@@ -16032,7 +16030,7 @@
       <c r="I367" s="8"/>
       <c r="J367" s="13"/>
     </row>
-    <row r="368" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>3359</v>
       </c>
@@ -16054,7 +16052,7 @@
       <c r="I368" s="8"/>
       <c r="J368" s="13"/>
     </row>
-    <row r="369" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>3360</v>
       </c>
@@ -16076,7 +16074,7 @@
       <c r="I369" s="8"/>
       <c r="J369" s="13"/>
     </row>
-    <row r="370" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>3361</v>
       </c>
@@ -16100,7 +16098,7 @@
       <c r="I370" s="8"/>
       <c r="J370" s="13"/>
     </row>
-    <row r="371" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>3362</v>
       </c>
@@ -16124,7 +16122,7 @@
       <c r="I371" s="8"/>
       <c r="J371" s="13"/>
     </row>
-    <row r="372" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>3363</v>
       </c>
@@ -16146,7 +16144,7 @@
       <c r="I372" s="8"/>
       <c r="J372" s="13"/>
     </row>
-    <row r="373" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>3364</v>
       </c>
@@ -16170,7 +16168,7 @@
       <c r="I373" s="8"/>
       <c r="J373" s="13"/>
     </row>
-    <row r="374" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>3365</v>
       </c>
@@ -16192,7 +16190,7 @@
       <c r="I374" s="8"/>
       <c r="J374" s="13"/>
     </row>
-    <row r="375" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>3366</v>
       </c>
@@ -16214,7 +16212,7 @@
       <c r="I375" s="8"/>
       <c r="J375" s="13"/>
     </row>
-    <row r="376" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>3367</v>
       </c>
@@ -16238,7 +16236,7 @@
       <c r="I376" s="8"/>
       <c r="J376" s="13"/>
     </row>
-    <row r="377" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>3368</v>
       </c>
@@ -16260,7 +16258,7 @@
       <c r="I377" s="8"/>
       <c r="J377" s="13"/>
     </row>
-    <row r="378" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>3369</v>
       </c>
@@ -16284,7 +16282,7 @@
       <c r="I378" s="8"/>
       <c r="J378" s="13"/>
     </row>
-    <row r="379" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>3370</v>
       </c>
@@ -16308,7 +16306,7 @@
       <c r="I379" s="8"/>
       <c r="J379" s="13"/>
     </row>
-    <row r="380" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>3371</v>
       </c>
@@ -16330,7 +16328,7 @@
       <c r="I380" s="8"/>
       <c r="J380" s="13"/>
     </row>
-    <row r="381" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>3372</v>
       </c>
@@ -16354,7 +16352,7 @@
       <c r="I381" s="8"/>
       <c r="J381" s="13"/>
     </row>
-    <row r="382" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>3373</v>
       </c>
@@ -16376,7 +16374,7 @@
       <c r="I382" s="8"/>
       <c r="J382" s="13"/>
     </row>
-    <row r="383" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>3374</v>
       </c>
@@ -16400,7 +16398,7 @@
       <c r="I383" s="8"/>
       <c r="J383" s="13"/>
     </row>
-    <row r="384" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>3375</v>
       </c>
@@ -16422,7 +16420,7 @@
       <c r="I384" s="8"/>
       <c r="J384" s="13"/>
     </row>
-    <row r="385" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>3376</v>
       </c>
@@ -16446,7 +16444,7 @@
       <c r="I385" s="8"/>
       <c r="J385" s="13"/>
     </row>
-    <row r="386" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>3377</v>
       </c>
@@ -16470,7 +16468,7 @@
       <c r="I386" s="8"/>
       <c r="J386" s="13"/>
     </row>
-    <row r="387" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>3378</v>
       </c>
@@ -16492,7 +16490,7 @@
       <c r="I387" s="8"/>
       <c r="J387" s="13"/>
     </row>
-    <row r="388" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>3562</v>
       </c>
@@ -16516,7 +16514,7 @@
       <c r="I388" s="8"/>
       <c r="J388" s="13"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>3619</v>
       </c>
@@ -16548,7 +16546,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>3797</v>
       </c>
@@ -16572,7 +16570,7 @@
       <c r="I390" s="8"/>
       <c r="J390" s="13"/>
     </row>
-    <row r="391" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>3847</v>
       </c>
@@ -16604,7 +16602,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>3855</v>
       </c>
@@ -16628,7 +16626,7 @@
       <c r="I392" s="8"/>
       <c r="J392" s="13"/>
     </row>
-    <row r="393" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>3856</v>
       </c>
@@ -16652,7 +16650,7 @@
       <c r="I393" s="8"/>
       <c r="J393" s="13"/>
     </row>
-    <row r="394" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>3857</v>
       </c>
@@ -16684,7 +16682,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>3862</v>
       </c>
@@ -16706,7 +16704,7 @@
       <c r="I395" s="8"/>
       <c r="J395" s="13"/>
     </row>
-    <row r="396" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>3882</v>
       </c>
@@ -16730,7 +16728,7 @@
       <c r="I396" s="8"/>
       <c r="J396" s="13"/>
     </row>
-    <row r="397" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>3938</v>
       </c>
@@ -16762,7 +16760,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>4234</v>
       </c>
@@ -16786,7 +16784,7 @@
       <c r="I398" s="8"/>
       <c r="J398" s="13"/>
     </row>
-    <row r="399" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>4235</v>
       </c>
@@ -16810,7 +16808,7 @@
       <c r="I399" s="8"/>
       <c r="J399" s="13"/>
     </row>
-    <row r="400" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>4236</v>
       </c>
@@ -16834,7 +16832,7 @@
       <c r="I400" s="8"/>
       <c r="J400" s="13"/>
     </row>
-    <row r="401" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>4237</v>
       </c>
@@ -16858,7 +16856,7 @@
       <c r="I401" s="8"/>
       <c r="J401" s="13"/>
     </row>
-    <row r="402" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>4239</v>
       </c>
@@ -16882,7 +16880,7 @@
       <c r="I402" s="8"/>
       <c r="J402" s="13"/>
     </row>
-    <row r="403" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>4266</v>
       </c>
@@ -16914,7 +16912,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>4267</v>
       </c>
@@ -16946,7 +16944,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>4268</v>
       </c>
@@ -16978,7 +16976,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>4270</v>
       </c>
@@ -17013,7 +17011,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>4274</v>
       </c>
@@ -17048,7 +17046,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>4275</v>
       </c>
@@ -17083,7 +17081,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>4278</v>
       </c>
@@ -17115,7 +17113,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>4279</v>
       </c>
@@ -17147,7 +17145,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>4282</v>
       </c>
@@ -17171,7 +17169,7 @@
       <c r="I411" s="8"/>
       <c r="J411" s="13"/>
     </row>
-    <row r="412" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>4283</v>
       </c>
@@ -17195,7 +17193,7 @@
       <c r="I412" s="8"/>
       <c r="J412" s="13"/>
     </row>
-    <row r="413" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>4357</v>
       </c>
@@ -17219,7 +17217,7 @@
       <c r="I413" s="8"/>
       <c r="J413" s="13"/>
     </row>
-    <row r="414" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>4412</v>
       </c>
@@ -17251,7 +17249,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>4413</v>
       </c>
@@ -17283,7 +17281,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>4414</v>
       </c>
@@ -17315,7 +17313,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>4415</v>
       </c>
@@ -17349,25 +17347,25 @@
     </row>
     <row r="418" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>4416</v>
-      </c>
-      <c r="B418" s="11" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C418" s="6" t="s">
-        <v>203</v>
+        <v>1738</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>541</v>
+        <v>177</v>
       </c>
       <c r="F418" s="7">
-        <v>155940</v>
+        <v>204640</v>
       </c>
       <c r="G418" s="14" t="s">
-        <v>1468</v>
+        <v>1384</v>
       </c>
       <c r="H418" s="8" t="s">
         <v>1345</v>
@@ -17379,7 +17377,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>4417</v>
       </c>
@@ -17414,7 +17412,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>4418</v>
       </c>
@@ -17449,7 +17447,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>4456</v>
       </c>
@@ -17481,7 +17479,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>4465</v>
       </c>
@@ -17513,7 +17511,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>4496</v>
       </c>
@@ -17545,7 +17543,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>4497</v>
       </c>
@@ -17577,7 +17575,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>4498</v>
       </c>
@@ -17609,7 +17607,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>4499</v>
       </c>
@@ -17633,7 +17631,7 @@
       <c r="I426" s="8"/>
       <c r="J426" s="13"/>
     </row>
-    <row r="427" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>4501</v>
       </c>
@@ -17657,7 +17655,7 @@
       <c r="I427" s="8"/>
       <c r="J427" s="13"/>
     </row>
-    <row r="428" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>4502</v>
       </c>
@@ -17681,7 +17679,7 @@
       <c r="I428" s="8"/>
       <c r="J428" s="13"/>
     </row>
-    <row r="429" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>4506</v>
       </c>
@@ -17705,7 +17703,7 @@
       <c r="I429" s="8"/>
       <c r="J429" s="13"/>
     </row>
-    <row r="430" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>4507</v>
       </c>
@@ -17729,7 +17727,7 @@
       <c r="I430" s="8"/>
       <c r="J430" s="13"/>
     </row>
-    <row r="431" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>4512</v>
       </c>
@@ -17753,7 +17751,7 @@
       <c r="I431" s="8"/>
       <c r="J431" s="13"/>
     </row>
-    <row r="432" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>4534</v>
       </c>
@@ -17777,7 +17775,7 @@
       <c r="I432" s="8"/>
       <c r="J432" s="13"/>
     </row>
-    <row r="433" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>4535</v>
       </c>
@@ -17801,7 +17799,7 @@
       <c r="I433" s="8"/>
       <c r="J433" s="13"/>
     </row>
-    <row r="434" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>4583</v>
       </c>
@@ -17825,7 +17823,7 @@
       <c r="I434" s="8"/>
       <c r="J434" s="13"/>
     </row>
-    <row r="435" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>4584</v>
       </c>
@@ -17849,7 +17847,7 @@
       <c r="I435" s="8"/>
       <c r="J435" s="13"/>
     </row>
-    <row r="436" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>4585</v>
       </c>
@@ -17873,7 +17871,7 @@
       <c r="I436" s="8"/>
       <c r="J436" s="13"/>
     </row>
-    <row r="437" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>4586</v>
       </c>
@@ -17897,7 +17895,7 @@
       <c r="I437" s="8"/>
       <c r="J437" s="13"/>
     </row>
-    <row r="438" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>4587</v>
       </c>
@@ -17921,7 +17919,7 @@
       <c r="I438" s="8"/>
       <c r="J438" s="13"/>
     </row>
-    <row r="439" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>4588</v>
       </c>
@@ -17945,7 +17943,7 @@
       <c r="I439" s="8"/>
       <c r="J439" s="13"/>
     </row>
-    <row r="440" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>4589</v>
       </c>
@@ -17977,7 +17975,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>4592</v>
       </c>
@@ -18001,7 +17999,7 @@
       <c r="I441" s="8"/>
       <c r="J441" s="13"/>
     </row>
-    <row r="442" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>4593</v>
       </c>
@@ -18025,7 +18023,7 @@
       <c r="I442" s="8"/>
       <c r="J442" s="13"/>
     </row>
-    <row r="443" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>4594</v>
       </c>
@@ -18049,7 +18047,7 @@
       <c r="I443" s="8"/>
       <c r="J443" s="13"/>
     </row>
-    <row r="444" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>4608</v>
       </c>
@@ -18081,7 +18079,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>4609</v>
       </c>
@@ -18113,7 +18111,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>4610</v>
       </c>
@@ -18148,7 +18146,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>4611</v>
       </c>
@@ -18180,7 +18178,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>4612</v>
       </c>
@@ -18212,7 +18210,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>4613</v>
       </c>
@@ -18244,7 +18242,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>4614</v>
       </c>
@@ -18276,7 +18274,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>4615</v>
       </c>
@@ -18308,7 +18306,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>4616</v>
       </c>
@@ -18340,7 +18338,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>4617</v>
       </c>
@@ -18372,7 +18370,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>4620</v>
       </c>
@@ -18404,7 +18402,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>4622</v>
       </c>
@@ -18436,7 +18434,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>4623</v>
       </c>
@@ -18463,7 +18461,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>4624</v>
       </c>
@@ -18495,7 +18493,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>4625</v>
       </c>
@@ -18527,7 +18525,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>4663</v>
       </c>
@@ -18559,7 +18557,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>4664</v>
       </c>
@@ -18591,7 +18589,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>4673</v>
       </c>
@@ -18617,49 +18615,53 @@
     </row>
     <row r="462" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
-        <v>4674</v>
-      </c>
-      <c r="B462" s="5" t="s">
-        <v>1196</v>
+        <v>1321</v>
+      </c>
+      <c r="B462" s="11" t="s">
+        <v>749</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>589</v>
+        <v>41</v>
       </c>
       <c r="F462" s="7">
-        <v>12048</v>
-      </c>
-      <c r="G462" s="8"/>
-      <c r="H462" s="8"/>
+        <v>224000</v>
+      </c>
+      <c r="G462" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H462" s="8" t="s">
+        <v>1412</v>
+      </c>
       <c r="I462" s="8"/>
       <c r="J462" s="13"/>
     </row>
     <row r="463" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>4675</v>
+        <v>4416</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>1197</v>
+        <v>1152</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="F463" s="7">
-        <v>266800</v>
+        <v>155940</v>
       </c>
       <c r="G463" s="14" t="s">
-        <v>1496</v>
+        <v>1468</v>
       </c>
       <c r="H463" s="8" t="s">
         <v>1345</v>
@@ -18671,7 +18673,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>4685</v>
       </c>
@@ -18695,7 +18697,7 @@
       <c r="I464" s="8"/>
       <c r="J464" s="13"/>
     </row>
-    <row r="465" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>4686</v>
       </c>
@@ -18719,7 +18721,7 @@
       <c r="I465" s="8"/>
       <c r="J465" s="13"/>
     </row>
-    <row r="466" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>4687</v>
       </c>
@@ -18743,7 +18745,7 @@
       <c r="I466" s="8"/>
       <c r="J466" s="13"/>
     </row>
-    <row r="467" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>4688</v>
       </c>
@@ -18767,7 +18769,7 @@
       <c r="I467" s="8"/>
       <c r="J467" s="13"/>
     </row>
-    <row r="468" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>4689</v>
       </c>
@@ -18791,7 +18793,7 @@
       <c r="I468" s="8"/>
       <c r="J468" s="13"/>
     </row>
-    <row r="469" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>4690</v>
       </c>
@@ -18815,7 +18817,7 @@
       <c r="I469" s="8"/>
       <c r="J469" s="13"/>
     </row>
-    <row r="470" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>4691</v>
       </c>
@@ -18839,7 +18841,7 @@
       <c r="I470" s="8"/>
       <c r="J470" s="13"/>
     </row>
-    <row r="471" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>4692</v>
       </c>
@@ -18863,7 +18865,7 @@
       <c r="I471" s="8"/>
       <c r="J471" s="13"/>
     </row>
-    <row r="472" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>4693</v>
       </c>
@@ -18887,7 +18889,7 @@
       <c r="I472" s="8"/>
       <c r="J472" s="13"/>
     </row>
-    <row r="473" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>4702</v>
       </c>
@@ -18919,7 +18921,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>4703</v>
       </c>
@@ -18951,7 +18953,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>4727</v>
       </c>
@@ -18983,7 +18985,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>4728</v>
       </c>
@@ -19015,7 +19017,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>4729</v>
       </c>
@@ -19047,7 +19049,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>4730</v>
       </c>
@@ -19079,7 +19081,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>4731</v>
       </c>
@@ -19111,7 +19113,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>4732</v>
       </c>
@@ -19143,7 +19145,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>4733</v>
       </c>
@@ -19175,7 +19177,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>4734</v>
       </c>
@@ -19207,7 +19209,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>4735</v>
       </c>
@@ -19239,7 +19241,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>4736</v>
       </c>
@@ -19271,7 +19273,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>4737</v>
       </c>
@@ -19303,7 +19305,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>4738</v>
       </c>
@@ -19335,7 +19337,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>4739</v>
       </c>
@@ -19367,7 +19369,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>4740</v>
       </c>
@@ -19399,7 +19401,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>4741</v>
       </c>
@@ -19431,7 +19433,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>4743</v>
       </c>
@@ -19463,7 +19465,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>4744</v>
       </c>
@@ -19495,7 +19497,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>4745</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>4747</v>
       </c>
@@ -19559,7 +19561,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>4748</v>
       </c>
@@ -19583,7 +19585,7 @@
       <c r="I494" s="8"/>
       <c r="J494" s="13"/>
     </row>
-    <row r="495" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>4749</v>
       </c>
@@ -19615,7 +19617,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>4750</v>
       </c>
@@ -19639,7 +19641,7 @@
       <c r="I496" s="8"/>
       <c r="J496" s="13"/>
     </row>
-    <row r="497" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>4751</v>
       </c>
@@ -19663,7 +19665,7 @@
       <c r="I497" s="8"/>
       <c r="J497" s="13"/>
     </row>
-    <row r="498" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>4752</v>
       </c>
@@ -19687,7 +19689,7 @@
       <c r="I498" s="8"/>
       <c r="J498" s="13"/>
     </row>
-    <row r="499" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>4753</v>
       </c>
@@ -19711,7 +19713,7 @@
       <c r="I499" s="8"/>
       <c r="J499" s="13"/>
     </row>
-    <row r="500" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>4754</v>
       </c>
@@ -19735,7 +19737,7 @@
       <c r="I500" s="8"/>
       <c r="J500" s="13"/>
     </row>
-    <row r="501" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>4755</v>
       </c>
@@ -19759,7 +19761,7 @@
       <c r="I501" s="8"/>
       <c r="J501" s="13"/>
     </row>
-    <row r="502" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>4756</v>
       </c>
@@ -19783,7 +19785,7 @@
       <c r="I502" s="8"/>
       <c r="J502" s="13"/>
     </row>
-    <row r="503" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>4757</v>
       </c>
@@ -19807,7 +19809,7 @@
       <c r="I503" s="8"/>
       <c r="J503" s="13"/>
     </row>
-    <row r="504" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>4758</v>
       </c>
@@ -19831,7 +19833,7 @@
       <c r="I504" s="8"/>
       <c r="J504" s="13"/>
     </row>
-    <row r="505" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>4762</v>
       </c>
@@ -19855,7 +19857,7 @@
       <c r="I505" s="8"/>
       <c r="J505" s="13"/>
     </row>
-    <row r="506" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>4763</v>
       </c>
@@ -19879,7 +19881,7 @@
       <c r="I506" s="8"/>
       <c r="J506" s="13"/>
     </row>
-    <row r="507" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>4764</v>
       </c>
@@ -19903,7 +19905,7 @@
       <c r="I507" s="8"/>
       <c r="J507" s="13"/>
     </row>
-    <row r="508" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>4765</v>
       </c>
@@ -19927,7 +19929,7 @@
       <c r="I508" s="8"/>
       <c r="J508" s="13"/>
     </row>
-    <row r="509" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>4766</v>
       </c>
@@ -19951,7 +19953,7 @@
       <c r="I509" s="8"/>
       <c r="J509" s="13"/>
     </row>
-    <row r="510" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>4767</v>
       </c>
@@ -19975,7 +19977,7 @@
       <c r="I510" s="8"/>
       <c r="J510" s="13"/>
     </row>
-    <row r="511" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>4768</v>
       </c>
@@ -19999,7 +20001,7 @@
       <c r="I511" s="8"/>
       <c r="J511" s="13"/>
     </row>
-    <row r="512" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>4770</v>
       </c>
@@ -20023,7 +20025,7 @@
       <c r="I512" s="8"/>
       <c r="J512" s="13"/>
     </row>
-    <row r="513" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>4771</v>
       </c>
@@ -20047,7 +20049,7 @@
       <c r="I513" s="8"/>
       <c r="J513" s="13"/>
     </row>
-    <row r="514" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>4772</v>
       </c>
@@ -20071,7 +20073,7 @@
       <c r="I514" s="8"/>
       <c r="J514" s="13"/>
     </row>
-    <row r="515" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>4773</v>
       </c>
@@ -20095,7 +20097,7 @@
       <c r="I515" s="8"/>
       <c r="J515" s="13"/>
     </row>
-    <row r="516" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>4774</v>
       </c>
@@ -20119,7 +20121,7 @@
       <c r="I516" s="8"/>
       <c r="J516" s="13"/>
     </row>
-    <row r="517" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>4775</v>
       </c>
@@ -20143,7 +20145,7 @@
       <c r="I517" s="8"/>
       <c r="J517" s="13"/>
     </row>
-    <row r="518" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>4776</v>
       </c>
@@ -20167,7 +20169,7 @@
       <c r="I518" s="8"/>
       <c r="J518" s="13"/>
     </row>
-    <row r="519" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>4777</v>
       </c>
@@ -20191,7 +20193,7 @@
       <c r="I519" s="8"/>
       <c r="J519" s="13"/>
     </row>
-    <row r="520" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>4778</v>
       </c>
@@ -20215,7 +20217,7 @@
       <c r="I520" s="8"/>
       <c r="J520" s="13"/>
     </row>
-    <row r="521" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>4779</v>
       </c>
@@ -20239,7 +20241,7 @@
       <c r="I521" s="8"/>
       <c r="J521" s="13"/>
     </row>
-    <row r="522" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>4780</v>
       </c>
@@ -20263,7 +20265,7 @@
       <c r="I522" s="8"/>
       <c r="J522" s="13"/>
     </row>
-    <row r="523" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>4781</v>
       </c>
@@ -20287,7 +20289,7 @@
       <c r="I523" s="8"/>
       <c r="J523" s="13"/>
     </row>
-    <row r="524" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>4782</v>
       </c>
@@ -20311,7 +20313,7 @@
       <c r="I524" s="8"/>
       <c r="J524" s="13"/>
     </row>
-    <row r="525" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>4783</v>
       </c>
@@ -20335,7 +20337,7 @@
       <c r="I525" s="8"/>
       <c r="J525" s="13"/>
     </row>
-    <row r="526" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>4784</v>
       </c>
@@ -20359,7 +20361,7 @@
       <c r="I526" s="8"/>
       <c r="J526" s="13"/>
     </row>
-    <row r="527" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>4785</v>
       </c>
@@ -20383,7 +20385,7 @@
       <c r="I527" s="8"/>
       <c r="J527" s="13"/>
     </row>
-    <row r="528" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>4786</v>
       </c>
@@ -20407,7 +20409,7 @@
       <c r="I528" s="8"/>
       <c r="J528" s="13"/>
     </row>
-    <row r="529" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>4792</v>
       </c>
@@ -20431,7 +20433,7 @@
       <c r="I529" s="8"/>
       <c r="J529" s="13"/>
     </row>
-    <row r="530" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>4793</v>
       </c>
@@ -20455,7 +20457,7 @@
       <c r="I530" s="8"/>
       <c r="J530" s="13"/>
     </row>
-    <row r="531" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>4798</v>
       </c>
@@ -20479,7 +20481,7 @@
       <c r="I531" s="8"/>
       <c r="J531" s="13"/>
     </row>
-    <row r="532" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>4799</v>
       </c>
@@ -20503,7 +20505,7 @@
       <c r="I532" s="8"/>
       <c r="J532" s="13"/>
     </row>
-    <row r="533" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>4800</v>
       </c>
@@ -20527,7 +20529,7 @@
       <c r="I533" s="8"/>
       <c r="J533" s="13"/>
     </row>
-    <row r="534" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>4801</v>
       </c>
@@ -20551,7 +20553,7 @@
       <c r="I534" s="8"/>
       <c r="J534" s="13"/>
     </row>
-    <row r="535" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>4802</v>
       </c>
@@ -20575,7 +20577,7 @@
       <c r="I535" s="8"/>
       <c r="J535" s="13"/>
     </row>
-    <row r="536" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>4803</v>
       </c>
@@ -20599,7 +20601,7 @@
       <c r="I536" s="8"/>
       <c r="J536" s="13"/>
     </row>
-    <row r="537" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>4867</v>
       </c>
@@ -20623,30 +20625,30 @@
       <c r="I537" s="8"/>
       <c r="J537" s="13"/>
     </row>
-    <row r="538" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
-        <v>4868</v>
+        <v>3344</v>
       </c>
       <c r="B538" s="11" t="s">
-        <v>1272</v>
+        <v>1090</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>671</v>
+        <v>472</v>
       </c>
       <c r="F538" s="7">
-        <v>9960</v>
+        <v>79990</v>
       </c>
       <c r="G538" s="14" t="s">
-        <v>1497</v>
+        <v>1447</v>
       </c>
       <c r="H538" s="14" t="s">
-        <v>1499</v>
+        <v>1449</v>
       </c>
       <c r="I538" s="8" t="s">
         <v>1345</v>
@@ -20655,7 +20657,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>4869</v>
       </c>
@@ -20681,7 +20683,7 @@
       <c r="I539" s="8"/>
       <c r="J539" s="13"/>
     </row>
-    <row r="540" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>4870</v>
       </c>
@@ -20707,7 +20709,7 @@
       <c r="I540" s="8"/>
       <c r="J540" s="13"/>
     </row>
-    <row r="541" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>4871</v>
       </c>
@@ -20733,7 +20735,7 @@
       <c r="I541" s="8"/>
       <c r="J541" s="13"/>
     </row>
-    <row r="542" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>4872</v>
       </c>
@@ -20759,7 +20761,7 @@
       <c r="I542" s="8"/>
       <c r="J542" s="13"/>
     </row>
-    <row r="543" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>4873</v>
       </c>
@@ -20785,7 +20787,7 @@
       <c r="I543" s="8"/>
       <c r="J543" s="13"/>
     </row>
-    <row r="544" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>4874</v>
       </c>
@@ -20809,7 +20811,7 @@
       <c r="I544" s="8"/>
       <c r="J544" s="13"/>
     </row>
-    <row r="545" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>4875</v>
       </c>
@@ -20835,7 +20837,7 @@
       <c r="I545" s="8"/>
       <c r="J545" s="13"/>
     </row>
-    <row r="546" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>4876</v>
       </c>
@@ -20861,7 +20863,7 @@
       <c r="I546" s="8"/>
       <c r="J546" s="13"/>
     </row>
-    <row r="547" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>4877</v>
       </c>
@@ -20887,7 +20889,7 @@
       <c r="I547" s="8"/>
       <c r="J547" s="13"/>
     </row>
-    <row r="548" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>4878</v>
       </c>
@@ -20913,7 +20915,7 @@
       <c r="I548" s="8"/>
       <c r="J548" s="13"/>
     </row>
-    <row r="549" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>4879</v>
       </c>
@@ -20939,7 +20941,7 @@
       <c r="I549" s="8"/>
       <c r="J549" s="13"/>
     </row>
-    <row r="550" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>4880</v>
       </c>
@@ -20965,7 +20967,7 @@
       <c r="I550" s="8"/>
       <c r="J550" s="13"/>
     </row>
-    <row r="551" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>4881</v>
       </c>
@@ -20991,7 +20993,7 @@
       <c r="I551" s="8"/>
       <c r="J551" s="13"/>
     </row>
-    <row r="552" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>4882</v>
       </c>
@@ -21017,7 +21019,7 @@
       <c r="I552" s="8"/>
       <c r="J552" s="13"/>
     </row>
-    <row r="553" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>4883</v>
       </c>
@@ -21043,7 +21045,7 @@
       <c r="I553" s="8"/>
       <c r="J553" s="13"/>
     </row>
-    <row r="554" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>4884</v>
       </c>
@@ -21069,7 +21071,7 @@
       <c r="I554" s="8"/>
       <c r="J554" s="13"/>
     </row>
-    <row r="555" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>4885</v>
       </c>
@@ -21095,7 +21097,7 @@
       <c r="I555" s="8"/>
       <c r="J555" s="13"/>
     </row>
-    <row r="556" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>4894</v>
       </c>
@@ -21121,7 +21123,7 @@
       <c r="I556" s="8"/>
       <c r="J556" s="13"/>
     </row>
-    <row r="557" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>4895</v>
       </c>
@@ -21147,7 +21149,7 @@
       <c r="I557" s="8"/>
       <c r="J557" s="13"/>
     </row>
-    <row r="558" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>4896</v>
       </c>
@@ -21173,7 +21175,7 @@
       <c r="I558" s="8"/>
       <c r="J558" s="13"/>
     </row>
-    <row r="559" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>4897</v>
       </c>
@@ -21199,7 +21201,7 @@
       <c r="I559" s="8"/>
       <c r="J559" s="13"/>
     </row>
-    <row r="560" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>4898</v>
       </c>
@@ -21225,7 +21227,7 @@
       <c r="I560" s="8"/>
       <c r="J560" s="13"/>
     </row>
-    <row r="561" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>4899</v>
       </c>
@@ -21251,7 +21253,7 @@
       <c r="I561" s="8"/>
       <c r="J561" s="13"/>
     </row>
-    <row r="562" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>4900</v>
       </c>
@@ -21277,7 +21279,7 @@
       <c r="I562" s="8"/>
       <c r="J562" s="13"/>
     </row>
-    <row r="563" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>4901</v>
       </c>
@@ -21303,7 +21305,7 @@
       <c r="I563" s="8"/>
       <c r="J563" s="13"/>
     </row>
-    <row r="564" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>4902</v>
       </c>
@@ -21329,7 +21331,7 @@
       <c r="I564" s="8"/>
       <c r="J564" s="13"/>
     </row>
-    <row r="565" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>4903</v>
       </c>
@@ -21355,7 +21357,7 @@
       <c r="I565" s="8"/>
       <c r="J565" s="13"/>
     </row>
-    <row r="566" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>4909</v>
       </c>
@@ -21381,7 +21383,7 @@
       <c r="I566" s="8"/>
       <c r="J566" s="13"/>
     </row>
-    <row r="567" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>4910</v>
       </c>
@@ -21407,7 +21409,7 @@
       <c r="I567" s="8"/>
       <c r="J567" s="13"/>
     </row>
-    <row r="568" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>4911</v>
       </c>
@@ -21433,7 +21435,7 @@
       <c r="I568" s="8"/>
       <c r="J568" s="13"/>
     </row>
-    <row r="569" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>4912</v>
       </c>
@@ -21459,7 +21461,7 @@
       <c r="I569" s="8"/>
       <c r="J569" s="13"/>
     </row>
-    <row r="570" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>4936</v>
       </c>
@@ -21485,7 +21487,7 @@
       <c r="I570" s="8"/>
       <c r="J570" s="13"/>
     </row>
-    <row r="571" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>4941</v>
       </c>
@@ -21509,7 +21511,7 @@
       <c r="I571" s="8"/>
       <c r="J571" s="13"/>
     </row>
-    <row r="572" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>4942</v>
       </c>
@@ -21537,31 +21539,29 @@
     </row>
     <row r="573" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
-        <v>4943</v>
-      </c>
-      <c r="B573" s="11" t="s">
-        <v>1307</v>
+        <v>4674</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>1196</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>707</v>
+        <v>589</v>
       </c>
       <c r="F573" s="7">
-        <v>119000</v>
-      </c>
-      <c r="G573" s="14" t="s">
-        <v>1531</v>
-      </c>
+        <v>12048</v>
+      </c>
+      <c r="G573" s="8"/>
       <c r="H573" s="8"/>
       <c r="I573" s="8"/>
       <c r="J573" s="13"/>
     </row>
-    <row r="574" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>4945</v>
       </c>
@@ -21585,7 +21585,7 @@
       <c r="I574" s="8"/>
       <c r="J574" s="13"/>
     </row>
-    <row r="575" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>4956</v>
       </c>
@@ -21609,7 +21609,7 @@
       <c r="I575" s="8"/>
       <c r="J575" s="13"/>
     </row>
-    <row r="576" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>4957</v>
       </c>
@@ -21635,7 +21635,7 @@
       <c r="I576" s="8"/>
       <c r="J576" s="13"/>
     </row>
-    <row r="577" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>4958</v>
       </c>
@@ -21661,7 +21661,7 @@
       <c r="I577" s="8"/>
       <c r="J577" s="13"/>
     </row>
-    <row r="578" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>600</v>
       </c>
@@ -21687,7 +21687,7 @@
       <c r="I578" s="8"/>
       <c r="J578" s="13"/>
     </row>
-    <row r="579" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>601</v>
       </c>
@@ -21713,7 +21713,7 @@
       <c r="I579" s="8"/>
       <c r="J579" s="13"/>
     </row>
-    <row r="580" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>733</v>
       </c>
@@ -21739,7 +21739,7 @@
       <c r="I580" s="8"/>
       <c r="J580" s="13"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>747</v>
       </c>
@@ -21763,7 +21763,7 @@
       <c r="I581" s="8"/>
       <c r="J581" s="13"/>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>748</v>
       </c>
@@ -21787,7 +21787,7 @@
       <c r="I582" s="8"/>
       <c r="J582" s="13"/>
     </row>
-    <row r="583" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>752</v>
       </c>
@@ -21811,7 +21811,7 @@
       <c r="I583" s="8"/>
       <c r="J583" s="13"/>
     </row>
-    <row r="584" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>754</v>
       </c>
@@ -21835,7 +21835,7 @@
       <c r="I584" s="8"/>
       <c r="J584" s="13"/>
     </row>
-    <row r="585" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>755</v>
       </c>
@@ -21859,7 +21859,7 @@
       <c r="I585" s="8"/>
       <c r="J585" s="13"/>
     </row>
-    <row r="586" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>756</v>
       </c>
@@ -21883,7 +21883,7 @@
       <c r="I586" s="8"/>
       <c r="J586" s="13"/>
     </row>
-    <row r="587" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>757</v>
       </c>
@@ -21907,7 +21907,7 @@
       <c r="I587" s="8"/>
       <c r="J587" s="13"/>
     </row>
-    <row r="588" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>758</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="I588" s="8"/>
       <c r="J588" s="13"/>
     </row>
-    <row r="589" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>759</v>
       </c>
@@ -21955,7 +21955,7 @@
       <c r="I589" s="8"/>
       <c r="J589" s="13"/>
     </row>
-    <row r="590" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>760</v>
       </c>
@@ -21979,7 +21979,7 @@
       <c r="I590" s="8"/>
       <c r="J590" s="13"/>
     </row>
-    <row r="591" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>761</v>
       </c>
@@ -22003,7 +22003,7 @@
       <c r="I591" s="8"/>
       <c r="J591" s="13"/>
     </row>
-    <row r="592" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>789</v>
       </c>
@@ -22027,7 +22027,7 @@
       <c r="I592" s="8"/>
       <c r="J592" s="13"/>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>790</v>
       </c>
@@ -22051,7 +22051,7 @@
       <c r="I593" s="8"/>
       <c r="J593" s="13"/>
     </row>
-    <row r="594" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>792</v>
       </c>
@@ -22075,7 +22075,7 @@
       <c r="I594" s="8"/>
       <c r="J594" s="13"/>
     </row>
-    <row r="595" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>820</v>
       </c>
@@ -22101,7 +22101,7 @@
       <c r="I595" s="8"/>
       <c r="J595" s="13"/>
     </row>
-    <row r="596" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
         <v>821</v>
       </c>
@@ -22125,7 +22125,7 @@
       <c r="I596" s="8"/>
       <c r="J596" s="13"/>
     </row>
-    <row r="597" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>823</v>
       </c>
@@ -22149,7 +22149,7 @@
       <c r="I597" s="8"/>
       <c r="J597" s="13"/>
     </row>
-    <row r="598" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>824</v>
       </c>
@@ -22173,7 +22173,7 @@
       <c r="I598" s="8"/>
       <c r="J598" s="13"/>
     </row>
-    <row r="599" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>832</v>
       </c>
@@ -22197,7 +22197,7 @@
       <c r="I599" s="8"/>
       <c r="J599" s="13"/>
     </row>
-    <row r="600" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
         <v>835</v>
       </c>
@@ -22221,7 +22221,7 @@
       <c r="I600" s="8"/>
       <c r="J600" s="13"/>
     </row>
-    <row r="601" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
         <v>836</v>
       </c>
@@ -22245,7 +22245,7 @@
       <c r="I601" s="8"/>
       <c r="J601" s="13"/>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>977</v>
       </c>
@@ -22270,29 +22270,57 @@
       <c r="J602" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H602" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H602" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Bien Air SPRAYNET 500 аэрозоль для стоматологических наконечников и турбин"/>
+        <filter val="Bien-Air MC2 LK электрический микромотор с угольными щетками, с подсветкой"/>
+        <filter val="Cattani кожух шумозащитный для аспираторов Turbo-Smart"/>
+        <filter val="Chirana шланг для электрического микромотора CH660"/>
+        <filter val="Codyson CD-4820 ультразвуковая мойка с подогревом, 2,5 л"/>
+        <filter val="Ivoclar Vivadent Programat EP 3010 печь для обжига и прессования"/>
+        <filter val="Ivoclar Vivadent Programat EP 5010 печь для обжига и прессования"/>
+        <filter val="KaVo GENDEX GXDP-700С ортопантомограф с цефалостатом"/>
+        <filter val="Mercury 550 мобильная стоматологическая установка"/>
+        <filter val="NSK iCare C2 Type аппарат для чистки и смазки наконечников"/>
+        <filter val="NSK Nakanishi Varios 170 встраиваемый многофункциональный ультразвуковой скалер без оптики"/>
+        <filter val="NSK Nakanishi Varios 370 LUX портативный ультразвуковой скейлер с оптикой"/>
+        <filter val="NSK PTL-CL-LED III быстросъемный наконечник с подсветкой"/>
+        <filter val="Omec SD 84.D.00 универсальный триммер для влажной и сухой обработки моделей, алмазный диск"/>
+        <filter val="Omec VIBR-X-34 вибростол большой"/>
+        <filter val="Silfradent Minicruise 420 фрезер стоматологический"/>
+        <filter val="Ugin Programix TX 50 программируемая муфельная печь, объем камеры 4,2 л"/>
+        <filter val="W&amp;H Assistina TWIN аппарат для чистки и смазки наконечников"/>
+        <filter val="W&amp;H DentalWerk Synea Vision TK-100 L турбинный наконечник с подсветкой, пятиточечным спреем, диаметром головки 13 мм (под соединение Roto Quick)"/>
+        <filter val="Аверон ЭНДО 1.0 портативный аппарат для осуществления процедур депофореза"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H573">
+      <sortCondition ref="E1:E602"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H87" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G87" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G110" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H110" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="J12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G137" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H137" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="J13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G137" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G141" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G270" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="G343" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="G344" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G389" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G84" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G85" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="H86" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G87" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H87" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="G88" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="H88" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="J89" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
@@ -22304,18 +22332,18 @@
     <hyperlink ref="H92" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="J92" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="G109" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G110" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G418" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="G111" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="G158" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="J158" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G160" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G147" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="I160" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="G161" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="G162" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="G163" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="G164" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="G166" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H160" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H147" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="J166" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="G167" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="J167" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
@@ -22362,8 +22390,8 @@
     <hyperlink ref="G353" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="G354" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="G355" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G356" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H356" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G538" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H538" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="G357" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="G359" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="G391" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
@@ -22379,7 +22407,7 @@
     <hyperlink ref="G415" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="G416" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="G417" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="G418" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G463" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="J418" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="G420" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="G421" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
@@ -22402,9 +22430,9 @@
     <hyperlink ref="G458" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="G459" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
     <hyperlink ref="G460" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="G463" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="G538" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H538" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G4" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G13" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H13" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="G539" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="G540" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
     <hyperlink ref="G541" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
@@ -22437,21 +22465,21 @@
     <hyperlink ref="G569" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
     <hyperlink ref="G570" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
     <hyperlink ref="G572" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="G573" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
     <hyperlink ref="G576" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
     <hyperlink ref="G577" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
     <hyperlink ref="G578" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
     <hyperlink ref="G579" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
     <hyperlink ref="G580" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
     <hyperlink ref="G595" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="G4" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="H4" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G14" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="H14" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
     <hyperlink ref="I4" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="G14" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G462" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="I14" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
     <hyperlink ref="I15" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="I17" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G18" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="G160" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
     <hyperlink ref="I18" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
     <hyperlink ref="G19" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="I19" r:id="rId183" display="https://shop.stomatorg.ru/catalog/vakuumnye_smesiteli/smesitel_vakuumnyy_s_vakuumnym_nasosom_programmiruemyy_fox_88_1_v/" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
@@ -22467,7 +22495,7 @@
     <hyperlink ref="I32" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
     <hyperlink ref="G33" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
     <hyperlink ref="I33" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="G34" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G356" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="I34" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
     <hyperlink ref="G35" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="H35" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
@@ -22491,8 +22519,8 @@
     <hyperlink ref="G193" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
     <hyperlink ref="G493" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="G495" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="G147" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="H147" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="G18" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H18" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
     <hyperlink ref="I147" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="G148" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
   </hyperlinks>
